--- a/recommedation_systems/rs_hands_on/similar_skus_by_top_query.xlsx
+++ b/recommedation_systems/rs_hands_on/similar_skus_by_top_query.xlsx
@@ -452,11 +452,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2794157255</v>
+        <v>777221929</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>дезодорант женский</t>
+          <t>крем для лица</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -465,11 +465,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2794159304</v>
+        <v>777236552</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>дезодорант женский</t>
+          <t>крем для лица</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -478,11 +478,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2794930526</v>
+        <v>1481646377</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>дезодорант женский</t>
+          <t>крем для лица</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -491,11 +491,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1911123794</v>
+        <v>777218254</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>дезодорант женский</t>
+          <t>крем для лица</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -504,80 +504,80 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1911108620</v>
+        <v>777221264</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>дезодорант</t>
+          <t>крем для лица</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4726982959266388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1911120359</v>
+        <v>777224245</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>дезодорант</t>
+          <t>крем для лица</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4726982959266388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2794160116</v>
+        <v>777225834</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>дезодорант</t>
+          <t>крем для лица</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4726982959266388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2794162377</v>
+        <v>777231475</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>дезодорант</t>
+          <t>крем для лица</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4726982959266388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2794163566</v>
+        <v>1481642115</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>дезодорант</t>
+          <t>крем для лица</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4726982959266388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2794164041</v>
+        <v>777237994</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>дезодорант</t>
+          <t>крем для лица</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4726982959266388</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
